--- a/experiments/testing.xlsx
+++ b/experiments/testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Bachelor's essay\Document\experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\THESIS_GIT\Document\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>User Infor</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Truy vấn thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bạn</t>
+  </si>
+  <si>
+    <t>Truy vấn danh sách bài viết mới</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bài viết theo nội dung</t>
+  </si>
+  <si>
+    <t>Tìm kiếm bài viết theo vị trí</t>
   </si>
 </sst>
 </file>
@@ -71,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,11 +94,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -97,9 +127,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -140,6 +171,1346 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Biể</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>u đồ thực nghiệm các chức năng</a:t>
+            </a:r>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trang_tính1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Truy vấn thông tin người dùng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trang_tính1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tìm kiếm bạn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trang_tính1!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Truy vấn danh sách bài viết mới</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trang_tính1!$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tìm kiếm bài viết theo nội dung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Trang_tính1!$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tìm kiếm bài viết theo vị trí</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Trang_tính1!$F$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="419960488"/>
+        <c:axId val="419965192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="419960488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Số</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> lượng kết nối</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419965192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419965192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Thời</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> gian thực thi (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419960488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Biểu đồ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Q14"/>
+  <dimension ref="C1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +2076,106 @@
         <v>11667</v>
       </c>
     </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>300</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5">
+        <v>400</v>
+      </c>
+      <c r="G19" s="5">
+        <v>974</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1987</v>
+      </c>
+      <c r="I19" s="5">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>896</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2067</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2671</v>
+      </c>
+      <c r="I20" s="5">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1984</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6106</v>
+      </c>
+      <c r="H21" s="5">
+        <v>7207</v>
+      </c>
+      <c r="I21" s="5">
+        <v>13814</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2406</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7015</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8465</v>
+      </c>
+      <c r="I22" s="5">
+        <v>15646</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1091</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2864</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3406</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6054</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J11:K11"/>
@@ -717,5 +2188,6 @@
     <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>